--- a/VectorBlockHCS.xlsx
+++ b/VectorBlockHCS.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>N</t>
   </si>
@@ -31,6 +31,27 @@
   </si>
   <si>
     <t>GPU2</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>is=10</t>
+  </si>
+  <si>
+    <t>ie=is+length-1=10+9-1=18</t>
+  </si>
+  <si>
+    <t>cbi_s</t>
   </si>
 </sst>
 </file>
@@ -135,82 +156,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -228,17 +173,81 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -246,26 +255,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -274,23 +296,17 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -572,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D2:BA6"/>
+  <dimension ref="B2:BA22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V12" sqref="V12"/>
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -583,7 +599,7 @@
     <col min="1" max="57" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:53" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:53" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D2" t="s">
         <v>0</v>
       </c>
@@ -591,420 +607,524 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="4:53" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D3" s="20">
+    <row r="3" spans="2:53" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="7">
         <v>0</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="8">
         <v>1</v>
       </c>
-      <c r="F3" s="21">
+      <c r="F3" s="8">
         <v>2</v>
       </c>
-      <c r="G3" s="21">
+      <c r="G3" s="8">
         <v>3</v>
       </c>
-      <c r="H3" s="21">
+      <c r="H3" s="8">
         <v>4</v>
       </c>
-      <c r="I3" s="21">
+      <c r="I3" s="8">
         <v>5</v>
       </c>
-      <c r="J3" s="21">
+      <c r="J3" s="8">
         <v>6</v>
       </c>
-      <c r="K3" s="21">
+      <c r="K3" s="8">
         <v>7</v>
       </c>
-      <c r="L3" s="21">
+      <c r="L3" s="8">
         <v>8</v>
       </c>
-      <c r="M3" s="21">
+      <c r="M3" s="8">
         <v>9</v>
       </c>
-      <c r="N3" s="21">
+      <c r="N3" s="8">
         <v>10</v>
       </c>
-      <c r="O3" s="21">
+      <c r="O3" s="8">
         <v>11</v>
       </c>
-      <c r="P3" s="21">
+      <c r="P3" s="8">
         <v>12</v>
       </c>
-      <c r="Q3" s="21">
+      <c r="Q3" s="8">
         <v>13</v>
       </c>
-      <c r="R3" s="22">
+      <c r="R3" s="9">
         <v>14</v>
       </c>
-      <c r="S3" s="20">
+      <c r="S3" s="7">
         <v>0</v>
       </c>
-      <c r="T3" s="21">
+      <c r="T3" s="8">
         <v>1</v>
       </c>
-      <c r="U3" s="21">
+      <c r="U3" s="8">
         <v>2</v>
       </c>
-      <c r="V3" s="21">
+      <c r="V3" s="8">
         <v>3</v>
       </c>
-      <c r="W3" s="21">
+      <c r="W3" s="8">
         <v>4</v>
       </c>
-      <c r="X3" s="21">
+      <c r="X3" s="8">
         <v>5</v>
       </c>
-      <c r="Y3" s="21">
+      <c r="Y3" s="8">
         <v>6</v>
       </c>
-      <c r="Z3" s="21">
+      <c r="Z3" s="8">
         <v>7</v>
       </c>
-      <c r="AA3" s="21">
+      <c r="AA3" s="8">
         <v>8</v>
       </c>
-      <c r="AB3" s="21">
+      <c r="AB3" s="8">
         <v>9</v>
       </c>
-      <c r="AC3" s="21">
+      <c r="AC3" s="8">
         <v>10</v>
       </c>
-      <c r="AD3" s="21">
+      <c r="AD3" s="8">
         <v>11</v>
       </c>
-      <c r="AE3" s="21">
+      <c r="AE3" s="8">
         <v>12</v>
       </c>
-      <c r="AF3" s="21">
+      <c r="AF3" s="8">
         <v>13</v>
       </c>
-      <c r="AG3" s="21">
+      <c r="AG3" s="8">
         <v>14</v>
       </c>
-      <c r="AH3" s="21">
+      <c r="AH3" s="8">
         <v>15</v>
       </c>
-      <c r="AI3" s="21">
+      <c r="AI3" s="8">
         <v>16</v>
       </c>
-      <c r="AJ3" s="21">
+      <c r="AJ3" s="8">
         <v>17</v>
       </c>
-      <c r="AK3" s="21">
+      <c r="AK3" s="8">
         <v>18</v>
       </c>
-      <c r="AL3" s="22">
+      <c r="AL3" s="9">
         <v>19</v>
       </c>
-      <c r="AM3" s="20">
+      <c r="AM3" s="7">
         <v>0</v>
       </c>
-      <c r="AN3" s="21">
+      <c r="AN3" s="8">
         <v>1</v>
       </c>
-      <c r="AO3" s="21">
+      <c r="AO3" s="8">
         <v>2</v>
       </c>
-      <c r="AP3" s="21">
+      <c r="AP3" s="8">
         <v>3</v>
       </c>
-      <c r="AQ3" s="21">
+      <c r="AQ3" s="8">
         <v>4</v>
       </c>
-      <c r="AR3" s="21">
+      <c r="AR3" s="8">
         <v>5</v>
       </c>
-      <c r="AS3" s="21">
+      <c r="AS3" s="8">
         <v>6</v>
       </c>
-      <c r="AT3" s="21">
+      <c r="AT3" s="8">
         <v>7</v>
       </c>
-      <c r="AU3" s="21">
+      <c r="AU3" s="8">
         <v>8</v>
       </c>
-      <c r="AV3" s="21">
+      <c r="AV3" s="8">
         <v>9</v>
       </c>
-      <c r="AW3" s="21">
+      <c r="AW3" s="8">
         <v>10</v>
       </c>
-      <c r="AX3" s="21">
+      <c r="AX3" s="8">
         <v>11</v>
       </c>
-      <c r="AY3" s="21">
+      <c r="AY3" s="8">
         <v>12</v>
       </c>
-      <c r="AZ3" s="21">
+      <c r="AZ3" s="8">
         <v>13</v>
       </c>
-      <c r="BA3" s="22">
+      <c r="BA3" s="9">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="4:53" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D4" s="18">
+    <row r="4" spans="2:53" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="7">
         <v>0</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="8">
         <v>1</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="8">
         <v>2</v>
       </c>
-      <c r="G4" s="18">
+      <c r="G4" s="8">
         <v>3</v>
       </c>
-      <c r="H4" s="18">
+      <c r="H4" s="8">
         <v>4</v>
       </c>
-      <c r="I4" s="19">
+      <c r="I4" s="8">
         <v>5</v>
       </c>
-      <c r="J4" s="19">
+      <c r="J4" s="8">
         <v>6</v>
       </c>
-      <c r="K4" s="19">
+      <c r="K4" s="8">
         <v>7</v>
       </c>
-      <c r="L4" s="19">
+      <c r="L4" s="8">
         <v>8</v>
       </c>
-      <c r="M4" s="19">
+      <c r="M4" s="8">
         <v>9</v>
       </c>
-      <c r="N4" s="19">
+      <c r="N4" s="8">
         <v>10</v>
       </c>
-      <c r="O4" s="19">
+      <c r="O4" s="8">
         <v>11</v>
       </c>
-      <c r="P4" s="19">
+      <c r="P4" s="8">
         <v>12</v>
       </c>
-      <c r="Q4" s="19">
+      <c r="Q4" s="8">
         <v>13</v>
       </c>
-      <c r="R4" s="19">
+      <c r="R4" s="9">
         <v>14</v>
       </c>
-      <c r="S4" s="19">
+      <c r="S4" s="20">
         <v>15</v>
       </c>
-      <c r="T4" s="19">
+      <c r="T4" s="6">
         <v>16</v>
       </c>
-      <c r="U4" s="19">
+      <c r="U4" s="6">
         <v>17</v>
       </c>
-      <c r="V4" s="19">
+      <c r="V4" s="6">
         <v>18</v>
       </c>
-      <c r="W4" s="19">
+      <c r="W4" s="6">
         <v>19</v>
       </c>
-      <c r="X4" s="19">
+      <c r="X4" s="6">
         <v>20</v>
       </c>
-      <c r="Y4" s="19">
+      <c r="Y4" s="6">
         <v>21</v>
       </c>
-      <c r="Z4" s="19">
+      <c r="Z4" s="6">
         <v>22</v>
       </c>
-      <c r="AA4" s="19">
+      <c r="AA4" s="6">
         <v>23</v>
       </c>
-      <c r="AB4" s="19">
+      <c r="AB4" s="6">
         <v>24</v>
       </c>
-      <c r="AC4" s="19">
+      <c r="AC4" s="6">
         <v>25</v>
       </c>
-      <c r="AD4" s="19">
+      <c r="AD4" s="6">
         <v>26</v>
       </c>
-      <c r="AE4" s="19">
+      <c r="AE4" s="6">
         <v>27</v>
       </c>
-      <c r="AF4" s="19">
+      <c r="AF4" s="6">
         <v>28</v>
       </c>
-      <c r="AG4" s="19">
+      <c r="AG4" s="6">
         <v>29</v>
       </c>
-      <c r="AH4" s="19">
+      <c r="AH4" s="6">
         <v>30</v>
       </c>
-      <c r="AI4" s="19">
+      <c r="AI4" s="6">
         <v>31</v>
       </c>
-      <c r="AJ4" s="19">
+      <c r="AJ4" s="6">
         <v>32</v>
       </c>
-      <c r="AK4" s="19">
+      <c r="AK4" s="6">
         <v>33</v>
       </c>
-      <c r="AL4" s="19">
+      <c r="AL4" s="21">
         <v>34</v>
       </c>
-      <c r="AM4" s="19">
+      <c r="AM4" s="7">
         <v>35</v>
       </c>
-      <c r="AN4" s="19">
+      <c r="AN4" s="8">
         <v>36</v>
       </c>
-      <c r="AO4" s="19">
+      <c r="AO4" s="8">
         <v>37</v>
       </c>
-      <c r="AP4" s="19">
+      <c r="AP4" s="8">
         <v>38</v>
       </c>
-      <c r="AQ4" s="19">
+      <c r="AQ4" s="8">
         <v>39</v>
       </c>
-      <c r="AR4" s="19">
+      <c r="AR4" s="8">
         <v>40</v>
       </c>
-      <c r="AS4" s="19">
+      <c r="AS4" s="8">
         <v>41</v>
       </c>
-      <c r="AT4" s="19">
+      <c r="AT4" s="8">
         <v>42</v>
       </c>
-      <c r="AU4" s="19">
+      <c r="AU4" s="8">
         <v>43</v>
       </c>
-      <c r="AV4" s="19">
+      <c r="AV4" s="8">
         <v>44</v>
       </c>
-      <c r="AW4" s="19">
+      <c r="AW4" s="8">
         <v>45</v>
       </c>
-      <c r="AX4" s="19">
+      <c r="AX4" s="8">
         <v>46</v>
       </c>
-      <c r="AY4" s="19">
+      <c r="AY4" s="8">
         <v>47</v>
       </c>
-      <c r="AZ4" s="19">
+      <c r="AZ4" s="8">
         <v>48</v>
       </c>
-      <c r="BA4" s="19">
+      <c r="BA4" s="9">
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="4:53" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D5" s="5"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="7"/>
+    <row r="5" spans="2:53" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D5" s="2"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="13"/>
       <c r="S5" s="2"/>
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="2"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
       <c r="AA5" s="3"/>
-      <c r="AB5" s="4"/>
-      <c r="AC5" s="2"/>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3"/>
       <c r="AD5" s="3"/>
       <c r="AE5" s="3"/>
       <c r="AF5" s="3"/>
-      <c r="AG5" s="4"/>
-      <c r="AH5" s="2"/>
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="3"/>
       <c r="AI5" s="3"/>
       <c r="AJ5" s="3"/>
       <c r="AK5" s="3"/>
-      <c r="AL5" s="4"/>
+      <c r="AL5" s="13"/>
       <c r="AM5" s="2"/>
       <c r="AN5" s="3"/>
       <c r="AO5" s="3"/>
       <c r="AP5" s="3"/>
-      <c r="AQ5" s="4"/>
-      <c r="AR5" s="2"/>
+      <c r="AQ5" s="3"/>
+      <c r="AR5" s="3"/>
       <c r="AS5" s="3"/>
       <c r="AT5" s="3"/>
       <c r="AU5" s="3"/>
-      <c r="AV5" s="4"/>
-      <c r="AW5" s="2"/>
+      <c r="AV5" s="3"/>
+      <c r="AW5" s="3"/>
       <c r="AX5" s="3"/>
       <c r="AY5" s="3"/>
       <c r="AZ5" s="3"/>
       <c r="BA5" s="4"/>
     </row>
-    <row r="6" spans="4:53" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D6" s="8" t="s">
+    <row r="6" spans="2:53" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D6" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="12" t="s">
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="13"/>
-      <c r="W6" s="13"/>
-      <c r="X6" s="13"/>
-      <c r="Y6" s="13"/>
-      <c r="Z6" s="13"/>
-      <c r="AA6" s="13"/>
-      <c r="AB6" s="13"/>
-      <c r="AC6" s="13"/>
-      <c r="AD6" s="13"/>
-      <c r="AE6" s="13"/>
-      <c r="AF6" s="13"/>
-      <c r="AG6" s="13"/>
-      <c r="AH6" s="13"/>
-      <c r="AI6" s="13"/>
-      <c r="AJ6" s="13"/>
-      <c r="AK6" s="13"/>
-      <c r="AL6" s="14"/>
-      <c r="AM6" s="15" t="s">
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="15"/>
+      <c r="AA6" s="15"/>
+      <c r="AB6" s="15"/>
+      <c r="AC6" s="15"/>
+      <c r="AD6" s="15"/>
+      <c r="AE6" s="15"/>
+      <c r="AF6" s="15"/>
+      <c r="AG6" s="15"/>
+      <c r="AH6" s="15"/>
+      <c r="AI6" s="15"/>
+      <c r="AJ6" s="15"/>
+      <c r="AK6" s="15"/>
+      <c r="AL6" s="16"/>
+      <c r="AM6" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="AN6" s="16"/>
-      <c r="AO6" s="16"/>
-      <c r="AP6" s="16"/>
-      <c r="AQ6" s="16"/>
-      <c r="AR6" s="16"/>
-      <c r="AS6" s="16"/>
-      <c r="AT6" s="16"/>
-      <c r="AU6" s="16"/>
-      <c r="AV6" s="16"/>
-      <c r="AW6" s="16"/>
-      <c r="AX6" s="16"/>
-      <c r="AY6" s="16"/>
-      <c r="AZ6" s="16"/>
-      <c r="BA6" s="17"/>
+      <c r="AN6" s="18"/>
+      <c r="AO6" s="18"/>
+      <c r="AP6" s="18"/>
+      <c r="AQ6" s="18"/>
+      <c r="AR6" s="18"/>
+      <c r="AS6" s="18"/>
+      <c r="AT6" s="18"/>
+      <c r="AU6" s="18"/>
+      <c r="AV6" s="18"/>
+      <c r="AW6" s="18"/>
+      <c r="AX6" s="18"/>
+      <c r="AY6" s="18"/>
+      <c r="AZ6" s="18"/>
+      <c r="BA6" s="19"/>
     </row>
+    <row r="7" spans="2:53" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="2:53" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:53" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="2:53" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N10" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="P10" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="2:53" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N11" s="22">
+        <v>10</v>
+      </c>
+      <c r="O11" s="22">
+        <v>11</v>
+      </c>
+      <c r="P11" s="22">
+        <v>12</v>
+      </c>
+      <c r="Q11" s="22">
+        <v>13</v>
+      </c>
+      <c r="R11" s="22">
+        <v>14</v>
+      </c>
+      <c r="S11" s="22">
+        <v>15</v>
+      </c>
+      <c r="T11" s="22">
+        <v>16</v>
+      </c>
+      <c r="U11" s="22">
+        <v>17</v>
+      </c>
+      <c r="V11" s="22">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="2:53" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N12" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="V12" s="23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="2:53" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="2:53" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="2:53" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N15" s="22">
+        <v>10</v>
+      </c>
+      <c r="O15" s="22">
+        <v>11</v>
+      </c>
+      <c r="P15" s="22">
+        <v>12</v>
+      </c>
+      <c r="Q15" s="22">
+        <v>13</v>
+      </c>
+      <c r="R15" s="22">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="2:53" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N16" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="19:22" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="19:22" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S18" s="22">
+        <v>15</v>
+      </c>
+      <c r="T18" s="22">
+        <v>16</v>
+      </c>
+      <c r="U18" s="22">
+        <v>17</v>
+      </c>
+      <c r="V18" s="22">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="19:22" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="19:22" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="19:22" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="19:22" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="D6:R6"/>
